--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb20a369767b4d82/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukesh ade\Credence Testing 8\Credence Testing 21 new batch\AutomationProject\TutorialsNinjaWebApplication\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{43234BED-F325-4064-B6C5-17329D93F93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{120B9E69-987F-4CC6-8938-ED1490991F3B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E58BD19-885A-40C1-93A8-26C0CA656CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9393909D-D885-47BC-9AB9-D46F705B767C}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
